--- a/Combinacion/Fisica_1_240_Practica_01.xlsx
+++ b/Combinacion/Fisica_1_240_Practica_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Cuatrimestral\Fisica_1_BC\Combinacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41A22CF-E04F-4FA4-B1DD-2B2A3EE8697B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66775DA6-CC21-4816-81DE-F698FD792E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F61F6BF0-ECD5-4956-A8C9-483D1BA80205}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="206">
   <si>
     <t>Matrícula</t>
   </si>
@@ -653,14 +653,25 @@
   </si>
   <si>
     <t>Entregas un reporte en donde no hay evidencia de los experimentos que se indicaron en clase. ¿Usaste un vernier para medir? Se te considera solo en este primer reporte una entrega así.</t>
+  </si>
+  <si>
+    <t>Actividad no enviada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -688,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -696,6 +707,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,9 +1036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AE9F0C-F3AA-42B8-BBCA-921056EFE67A}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1085,154 +1096,154 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>20216188</v>
+        <v>20201915</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
-        <f t="shared" ref="M2:M49" si="0">SUM(H2:L2)</f>
-        <v>9</v>
+        <f>SUM(H2:L2)</f>
+        <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>20230763</v>
+        <v>20228925</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>2</v>
-      </c>
-      <c r="K3" s="2">
-        <v>2</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(H3:L3)</f>
+        <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>20218555</v>
+        <v>20230763</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2</v>
-      </c>
-      <c r="L4" s="1">
+        <v>70</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
         <v>1</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(H4:L4)</f>
         <v>9</v>
       </c>
       <c r="N4" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>20225468</v>
+        <v>20225729</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1240,41 +1251,59 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
       <c r="M5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H5:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>20220993</v>
+        <v>20228019</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -1283,190 +1312,208 @@
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>SUM(H6:L6)</f>
+        <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>20228109</v>
+        <v>20227095</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUM(H7:L7)</f>
+        <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>20212856</v>
+        <v>20195559</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(H8:L8)</f>
+        <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>20227095</v>
+        <v>20211253</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H9:L9)</f>
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>20229039</v>
+        <v>20225946</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2">
-        <v>2</v>
-      </c>
-      <c r="J10" s="2">
-        <v>2</v>
-      </c>
-      <c r="K10" s="2">
-        <v>2</v>
-      </c>
-      <c r="L10" s="2">
+        <v>84</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1">
         <v>1</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(H10:L10)</f>
         <v>9</v>
       </c>
       <c r="N10" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>20203982</v>
+        <v>20230085</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1487,184 +1534,256 @@
         <v>2</v>
       </c>
       <c r="L11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(H11:L11)</f>
+        <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>20227920</v>
+        <v>20229039</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
+        <v>89</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2">
         <v>1</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H12:L12)</f>
+        <v>9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>20196863</v>
+        <v>340440309</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H13:L13)</f>
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>20195559</v>
+        <v>20231913</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
       </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2</v>
+      </c>
       <c r="M14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H14:L14)</f>
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>20231913</v>
+        <v>20225468</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(H15:L15)</f>
+        <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>20228845</v>
+        <v>20218555</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
       </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
       <c r="M16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H16:L16)</f>
+        <v>9</v>
+      </c>
+      <c r="N16" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>20228019</v>
+        <v>20228496</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1672,26 +1791,44 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
       <c r="M17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H17:L17)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>20223975</v>
+        <v>20235059</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1699,35 +1836,53 @@
       <c r="G18" s="1">
         <v>0</v>
       </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
       <c r="M18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H18:L18)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>20226710</v>
+        <v>20225414</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
@@ -1736,17 +1891,17 @@
         <v>2</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" s="1">
         <v>1</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(H19:L19)</f>
+        <v>9</v>
       </c>
       <c r="N19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1771,26 +1926,44 @@
       <c r="G20" s="1">
         <v>1</v>
       </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
       <c r="M20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H20:L20)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20222083</v>
+        <v>20224948</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -1799,10 +1972,10 @@
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1">
         <v>2</v>
@@ -1814,55 +1987,73 @@
         <v>1</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(H21:L21)</f>
+        <v>7</v>
       </c>
       <c r="N21" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20225729</v>
+        <v>20231626</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
       </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2</v>
+      </c>
       <c r="M22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H22:L22)</f>
+        <v>10</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20228431</v>
+        <v>830175287</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -1886,55 +2077,73 @@
         <v>1</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(H23:L23)</f>
         <v>9</v>
       </c>
       <c r="N23" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>20235059</v>
+        <v>20226942</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
       </c>
       <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
         <v>0</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H24:L24)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>20224948</v>
+        <v>20218389</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -1943,10 +2152,10 @@
         <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="1">
         <v>2</v>
@@ -1958,73 +2167,73 @@
         <v>1</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(H25:L25)</f>
+        <v>9</v>
       </c>
       <c r="N25" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>20211253</v>
+        <v>20196863</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2">
-        <v>2</v>
-      </c>
-      <c r="I26" s="2">
-        <v>2</v>
-      </c>
-      <c r="J26" s="2">
-        <v>2</v>
-      </c>
-      <c r="K26" s="2">
-        <v>2</v>
-      </c>
-      <c r="L26" s="2">
-        <v>2</v>
+        <v>158</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(H26:L26)</f>
+        <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>20232376</v>
+        <v>20203982</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>174</v>
+        <v>89</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -2045,157 +2254,211 @@
         <v>2</v>
       </c>
       <c r="L27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(H27:L27)</f>
+        <v>9</v>
       </c>
       <c r="N27" t="s">
-        <v>187</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>20228319</v>
+        <v>20250571</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="F28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
         <v>0</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H28:L28)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>20228925</v>
+        <v>20220993</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
       </c>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
       <c r="M29" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H29:L29)</f>
+        <v>6</v>
+      </c>
+      <c r="N29" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>20222131</v>
+        <v>20226710</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2">
-        <v>2</v>
-      </c>
-      <c r="I30" s="2">
-        <v>2</v>
-      </c>
-      <c r="J30" s="2">
-        <v>2</v>
-      </c>
-      <c r="K30" s="2">
-        <v>2</v>
-      </c>
-      <c r="L30" s="2">
+        <v>160</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
         <v>1</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(H30:L30)</f>
+        <v>7</v>
       </c>
       <c r="N30" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>20250571</v>
+        <v>20228431</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="E31" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
       </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
       <c r="M31" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H31:L31)</f>
+        <v>9</v>
+      </c>
+      <c r="N31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>340440309</v>
+        <v>20205043</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="E32" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
@@ -2216,55 +2479,73 @@
         <v>2</v>
       </c>
       <c r="L32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(H32:L32)</f>
+        <v>9</v>
       </c>
       <c r="N32" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>20228570</v>
+        <v>20223975</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H33:L33)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>20229017</v>
+        <v>20228570</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
         <v>125</v>
@@ -2275,116 +2556,134 @@
       <c r="G34" s="1">
         <v>1</v>
       </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
       <c r="M34" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H34:L34)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>20225414</v>
+        <v>20229017</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="F35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
       </c>
       <c r="H35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(H35:L35)</f>
+        <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>20225946</v>
+        <v>20228845</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
       </c>
       <c r="H36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(H36:L36)</f>
+        <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>20205043</v>
+        <v>20228142</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
@@ -2408,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(H37:L37)</f>
         <v>9</v>
       </c>
       <c r="N37" t="s">
@@ -2417,19 +2716,19 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>340429212</v>
+        <v>20222083</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -2453,384 +2752,514 @@
         <v>1</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(H38:L38)</f>
         <v>9</v>
       </c>
       <c r="N38" t="s">
-        <v>194</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>20201915</v>
+        <v>340429212</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E39" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2</v>
+      </c>
+      <c r="K39" s="1">
+        <v>2</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H39:L39)</f>
+        <v>9</v>
+      </c>
+      <c r="N39" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>20218389</v>
+        <v>20225439</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="F40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(H40:L40)</f>
+        <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>20228496</v>
+        <v>20216188</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
       </c>
+      <c r="H41" s="1">
+        <v>2</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2</v>
+      </c>
+      <c r="K41" s="1">
+        <v>2</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1</v>
+      </c>
       <c r="M41" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H41:L41)</f>
+        <v>9</v>
+      </c>
+      <c r="N41" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>830175287</v>
+        <v>20227920</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="F42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
       </c>
       <c r="H42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(H42:L42)</f>
+        <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>20226942</v>
+        <v>20228319</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="F43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H43:L43)</f>
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>20225439</v>
+        <v>20227614</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="E44" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2</v>
+      </c>
+      <c r="K44" s="1">
+        <v>2</v>
+      </c>
+      <c r="L44" s="1">
+        <v>1</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H44:L44)</f>
+        <v>9</v>
+      </c>
+      <c r="N44" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>20230085</v>
+        <v>20228109</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1">
+        <v>172</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>2</v>
+      </c>
+      <c r="J45" s="2">
+        <v>2</v>
+      </c>
+      <c r="K45" s="2">
+        <v>2</v>
+      </c>
+      <c r="L45" s="2">
         <v>1</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H45:L45)</f>
+        <v>8</v>
+      </c>
+      <c r="N45" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>20228142</v>
+        <v>20245173</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(H46:L46)</f>
+        <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>20245173</v>
+        <v>20232376</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2</v>
+      </c>
+      <c r="J47" s="1">
+        <v>2</v>
+      </c>
+      <c r="K47" s="1">
+        <v>2</v>
+      </c>
+      <c r="L47" s="1">
+        <v>2</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H47:L47)</f>
+        <v>10</v>
+      </c>
+      <c r="N47" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>20227614</v>
+        <v>20222131</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" t="s">
         <v>120</v>
       </c>
-      <c r="D48" t="s">
-        <v>79</v>
-      </c>
       <c r="E48" t="s">
-        <v>124</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1</v>
-      </c>
-      <c r="H48" s="1">
-        <v>2</v>
-      </c>
-      <c r="I48" s="1">
-        <v>2</v>
-      </c>
-      <c r="J48" s="1">
-        <v>2</v>
-      </c>
-      <c r="K48" s="1">
-        <v>2</v>
-      </c>
-      <c r="L48" s="1">
+        <v>175</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>2</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2</v>
+      </c>
+      <c r="J48" s="2">
+        <v>2</v>
+      </c>
+      <c r="K48" s="2">
+        <v>2</v>
+      </c>
+      <c r="L48" s="2">
         <v>1</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(H48:L48)</f>
         <v>9</v>
       </c>
       <c r="N48" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>20231626</v>
+        <v>20212856</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2">
+        <v>2</v>
+      </c>
+      <c r="I49" s="2">
+        <v>2</v>
+      </c>
+      <c r="J49" s="2">
+        <v>2</v>
+      </c>
+      <c r="K49" s="2">
+        <v>2</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H49:L49)</f>
+        <v>9</v>
+      </c>
+      <c r="N49" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N49">
-    <sortCondition ref="E2:E49"/>
+    <sortCondition ref="B2:B49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2838,9 +3267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C277CCF1-0392-4544-82CA-FB8B992566F7}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2897,228 +3324,244 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>20216188</v>
+        <v>20201915</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
         <f>SUM(H2:L2)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>20228925</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <f>SUM(H3:L3)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>20230763</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>68</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>69</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>2</v>
-      </c>
-      <c r="K3" s="2">
-        <v>2</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
         <f>SUM(Practica_1!H4:L4)</f>
         <v>9</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N4" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20218555</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2</v>
-      </c>
-      <c r="K4" s="2">
-        <v>2</v>
-      </c>
-      <c r="L4" s="2">
-        <v>2</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" ref="M4:M49" si="0">SUM(H4:L4)</f>
-        <v>10</v>
-      </c>
-      <c r="N4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>20225468</v>
+        <v>20225729</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
       <c r="M5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H5:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>20220993</v>
+        <v>20228019</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUM(H6:L6)</f>
+        <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>61</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>20228109</v>
+        <v>20227095</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -3139,121 +3582,121 @@
         <v>2</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(H7:L7)</f>
+        <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>20212856</v>
+        <v>20195559</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="F8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(H8:L8)</f>
+        <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>20227095</v>
+        <v>20211253</v>
       </c>
       <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <f>SUM(H9:L9)</f>
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2</v>
-      </c>
-      <c r="K9" s="2">
-        <v>2</v>
-      </c>
-      <c r="L9" s="2">
-        <v>2</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
       <c r="N9" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>20229039</v>
+        <v>20225946</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -3262,204 +3705,268 @@
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" s="2">
         <v>2</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(H10:L10)</f>
+        <v>10</v>
       </c>
       <c r="N10" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>20203982</v>
+        <v>20230085</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(H11:L11)</f>
+        <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>20227920</v>
+        <v>20229039</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
       <c r="M12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H12:L12)</f>
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>20196863</v>
+        <v>340440309</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2</v>
+      </c>
       <c r="M13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H13:L13)</f>
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>20195559</v>
+        <v>20231913</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
       <c r="M14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H14:L14)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>20231913</v>
+        <v>20225468</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
       <c r="M15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H15:L15)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>20228845</v>
+        <v>20218555</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -3480,60 +3987,76 @@
         <v>2</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(H16:L16)</f>
+        <v>10</v>
       </c>
       <c r="N16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>20228019</v>
+        <v>20228496</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
       <c r="M17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H17:L17)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>20223975</v>
+        <v>20235059</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -3541,28 +4064,44 @@
       <c r="G18" s="2">
         <v>0</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
       <c r="M18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H18:L18)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>20226710</v>
+        <v>20225414</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -3571,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="2">
         <v>2</v>
@@ -3586,11 +4125,11 @@
         <v>1</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUM(H19:L19)</f>
+        <v>9</v>
       </c>
       <c r="N19" t="s">
-        <v>59</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -3631,7 +4170,7 @@
         <v>2</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(H20:L20)</f>
         <v>10</v>
       </c>
       <c r="N20" t="s">
@@ -3640,19 +4179,19 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20222083</v>
+        <v>20224948</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -3661,72 +4200,88 @@
         <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="2">
         <v>2</v>
       </c>
       <c r="K21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(H21:L21)</f>
+        <v>6</v>
       </c>
       <c r="N21" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20225729</v>
+        <v>20231626</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
       <c r="M22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H22:L22)</f>
+        <v>7</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20228431</v>
+        <v>830175287</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -3750,57 +4305,73 @@
         <v>2</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(H23:L23)</f>
         <v>10</v>
       </c>
       <c r="N23" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>20235059</v>
+        <v>20226942</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
       </c>
       <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
       <c r="M24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H24:L24)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>20224948</v>
+        <v>20218389</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -3809,88 +4380,88 @@
         <v>1</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="2">
         <v>2</v>
       </c>
       <c r="K25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>SUM(H25:L25)</f>
+        <v>10</v>
       </c>
       <c r="N25" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>20211253</v>
+        <v>20196863</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="F26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(H26:L26)</f>
+        <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>20232376</v>
+        <v>20203982</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>174</v>
+        <v>89</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -3911,31 +4482,31 @@
         <v>2</v>
       </c>
       <c r="L27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(H27:L27)</f>
+        <v>10</v>
       </c>
       <c r="N27" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>20228319</v>
+        <v>20250571</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -3943,57 +4514,89 @@
       <c r="G28" s="2">
         <v>0</v>
       </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
       <c r="M28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H28:L28)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>20228925</v>
+        <v>20220993</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="F29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
       <c r="M29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H29:L29)</f>
+        <v>8</v>
+      </c>
+      <c r="N29" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>20222131</v>
+        <v>20226710</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
@@ -4002,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="2">
         <v>2</v>
@@ -4014,60 +4617,76 @@
         <v>2</v>
       </c>
       <c r="L30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(H30:L30)</f>
+        <v>8</v>
       </c>
       <c r="N30" t="s">
-        <v>190</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>20250571</v>
+        <v>20228431</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="E31" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2</v>
+      </c>
+      <c r="K31" s="2">
+        <v>2</v>
+      </c>
+      <c r="L31" s="2">
+        <v>2</v>
+      </c>
       <c r="M31" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H31:L31)</f>
+        <v>10</v>
+      </c>
+      <c r="N31" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>340440309</v>
+        <v>20205043</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="E32" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>
@@ -4091,28 +4710,28 @@
         <v>2</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(H32:L32)</f>
         <v>10</v>
       </c>
       <c r="N32" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>20228570</v>
+        <v>20223975</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
@@ -4120,73 +4739,89 @@
       <c r="G33" s="2">
         <v>0</v>
       </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
       <c r="M33" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H33:L33)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>20229017</v>
+        <v>20228570</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
         <v>125</v>
       </c>
       <c r="F34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUM(H34:L34)</f>
+        <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>20225414</v>
+        <v>20229017</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
@@ -4204,34 +4839,34 @@
         <v>2</v>
       </c>
       <c r="K35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35" s="2">
         <v>1</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(H35:L35)</f>
+        <v>8</v>
       </c>
       <c r="N35" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>20225946</v>
+        <v>20228845</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
@@ -4252,31 +4887,31 @@
         <v>2</v>
       </c>
       <c r="L36" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(H36:L36)</f>
+        <v>9</v>
       </c>
       <c r="N36" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>20205043</v>
+        <v>20228142</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
@@ -4300,363 +4935,478 @@
         <v>2</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(H37:L37)</f>
         <v>10</v>
       </c>
       <c r="N37" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>340429212</v>
+        <v>20222083</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
       </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
+      <c r="H38" s="2">
+        <v>2</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2</v>
+      </c>
+      <c r="J38" s="2">
+        <v>2</v>
+      </c>
+      <c r="K38" s="2">
+        <v>2</v>
+      </c>
+      <c r="L38" s="2">
+        <v>2</v>
+      </c>
       <c r="M38" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H38:L38)</f>
+        <v>10</v>
+      </c>
+      <c r="N38" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>20201915</v>
+        <v>340429212</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E39" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
       </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
       <c r="M39" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H39:L39)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>20218389</v>
+        <v>20225439</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="F40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L40" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M40" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(H40:L40)</f>
+        <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>20228496</v>
+        <v>20216188</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="F41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
       </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="H41" s="2">
+        <v>2</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2</v>
+      </c>
+      <c r="J41" s="2">
+        <v>2</v>
+      </c>
+      <c r="K41" s="2">
+        <v>2</v>
+      </c>
+      <c r="L41" s="2">
+        <v>2</v>
+      </c>
       <c r="M41" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H41:L41)</f>
+        <v>10</v>
+      </c>
+      <c r="N41" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>830175287</v>
+        <v>20227920</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="F42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L42" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(H42:L42)</f>
+        <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>20226942</v>
+        <v>20228319</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
       </c>
       <c r="G43" s="2">
-        <v>1</v>
-      </c>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
       <c r="M43" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H43:L43)</f>
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>20225439</v>
+        <v>20227614</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="E44" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="F44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="2">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2</v>
+      </c>
+      <c r="J44" s="2">
+        <v>2</v>
+      </c>
+      <c r="K44" s="2">
+        <v>2</v>
+      </c>
+      <c r="L44" s="2">
+        <v>2</v>
+      </c>
       <c r="M44" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H44:L44)</f>
+        <v>10</v>
+      </c>
+      <c r="N44" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>20230085</v>
+        <v>20228109</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="F45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
       </c>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="H45" s="2">
+        <v>2</v>
+      </c>
+      <c r="I45" s="2">
+        <v>2</v>
+      </c>
+      <c r="J45" s="2">
+        <v>2</v>
+      </c>
+      <c r="K45" s="2">
+        <v>2</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
       <c r="M45" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H45:L45)</f>
+        <v>9</v>
+      </c>
+      <c r="N45" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>20228142</v>
+        <v>20245173</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="F46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L46" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(H46:L46)</f>
+        <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>20245173</v>
+        <v>20232376</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="2">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>2</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2</v>
+      </c>
+      <c r="J47" s="2">
+        <v>2</v>
+      </c>
+      <c r="K47" s="2">
+        <v>2</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1</v>
+      </c>
       <c r="M47" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H47:L47)</f>
+        <v>9</v>
+      </c>
+      <c r="N47" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>20227614</v>
+        <v>20222131</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" t="s">
         <v>120</v>
       </c>
-      <c r="D48" t="s">
-        <v>79</v>
-      </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="F48" s="2">
         <v>1</v>
@@ -4680,45 +5430,61 @@
         <v>2</v>
       </c>
       <c r="M48" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(H48:L48)</f>
         <v>10</v>
       </c>
       <c r="N48" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>20231626</v>
+        <v>20212856</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="F49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="2">
-        <v>0</v>
-      </c>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H49" s="2">
+        <v>2</v>
+      </c>
+      <c r="I49" s="2">
+        <v>2</v>
+      </c>
+      <c r="J49" s="2">
+        <v>2</v>
+      </c>
+      <c r="K49" s="2">
+        <v>2</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
       <c r="M49" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H49:L49)</f>
+        <v>9</v>
+      </c>
+      <c r="N49" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N49">
-    <sortCondition ref="E2:E49"/>
+    <sortCondition ref="B2:B49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4726,10 +5492,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFA64CC-080A-4DA9-82B7-6A3AB389F653}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4769,100 +5535,100 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>20216188</v>
+        <v>20201915</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
         <f>SUM(F2:G2)/2</f>
-        <v>9.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>20230763</v>
+        <v>20228925</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H49" si="0">SUM(F3:G3)/2</f>
-        <v>9</v>
+        <f>SUM(F3:G3)/2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>20218555</v>
+        <v>20230763</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="F4" s="2">
         <v>9</v>
       </c>
       <c r="G4" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
+        <f>SUM(F4:G4)/2</f>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>20225468</v>
+        <v>20225729</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -4871,322 +5637,322 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(F5:G5)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>20220993</v>
+        <v>20228019</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="F6" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(F6:G6)/2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>20228109</v>
+        <v>20227095</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="F7" s="2">
         <v>8</v>
       </c>
       <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SUM(F7:G7)/2</f>
         <v>9</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>20212856</v>
+        <v>20195559</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="F8" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(F8:G8)/2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>20227095</v>
+        <v>20211253</v>
       </c>
       <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
         <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="2">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1">
-        <v>10</v>
       </c>
       <c r="H9" s="1">
         <f>SUM(F9:G9)/2</f>
-        <v>9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>20229039</v>
+        <v>20225946</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2">
         <v>9</v>
       </c>
       <c r="G10" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(F10:G10)/2</f>
+        <v>9.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>20203982</v>
+        <v>20230085</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="F11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
+        <f>SUM(F11:G11)/2</f>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>20227920</v>
+        <v>20229039</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(F12:G12)/2</f>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>20196863</v>
+        <v>340440309</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(F13:G13)/2</f>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>20195559</v>
+        <v>20231913</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(F14:G14)/2</f>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>20231913</v>
+        <v>20225468</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="F15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(F15:G15)/2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>20228845</v>
+        <v>20218555</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G16" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
+        <f>SUM(F16:G16)/2</f>
+        <v>9.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>20228019</v>
+        <v>20228496</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -5195,25 +5961,25 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(F17:G17)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>20223975</v>
+        <v>20235059</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -5222,35 +5988,35 @@
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(F18:G18)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>20226710</v>
+        <v>20225414</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F19" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
+        <f>SUM(F19:G19)/2</f>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5276,79 +6042,79 @@
         <v>10</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(F20:G20)/2</f>
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20222083</v>
+        <v>20224948</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="F21" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G21" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
+        <f>SUM(F21:G21)/2</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20225729</v>
+        <v>20231626</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F22" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(F22:G22)/2</f>
+        <v>8.5</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20228431</v>
+        <v>830175287</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="F23" s="2">
         <v>9</v>
@@ -5357,25 +6123,25 @@
         <v>10</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(F23:G23)/2</f>
         <v>9.5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>20235059</v>
+        <v>20226942</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -5384,160 +6150,160 @@
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(F24:G24)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>20224948</v>
+        <v>20218389</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F25" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G25" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
+        <f>SUM(F25:G25)/2</f>
+        <v>9.5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>20211253</v>
+        <v>20196863</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="F26" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
+        <f>SUM(F26:G26)/2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>20232376</v>
+        <v>20203982</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>174</v>
+        <v>89</v>
       </c>
       <c r="F27" s="2">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1">
         <v>10</v>
       </c>
-      <c r="G27" s="1">
-        <v>9</v>
-      </c>
       <c r="H27" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(F27:G27)/2</f>
         <v>9.5</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>20228319</v>
+        <v>20220993</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="F28" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(F28:G28)/2</f>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>20228925</v>
+        <v>20226710</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="F29" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(F29:G29)/2</f>
+        <v>7.5</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>20222131</v>
+        <v>20228431</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
         <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F30" s="2">
         <v>9</v>
@@ -5546,76 +6312,76 @@
         <v>10</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(F30:G30)/2</f>
         <v>9.5</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>20250571</v>
+        <v>20205043</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="E31" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F31" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(F31:G31)/2</f>
+        <v>9.5</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>340440309</v>
+        <v>20223975</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F32" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(F32:G32)/2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>20228570</v>
+        <v>20229017</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="E33" t="s">
         <v>125</v>
@@ -5624,82 +6390,82 @@
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(F33:G33)/2</f>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>20229017</v>
+        <v>20228845</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(F34:G34)/2</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>20225414</v>
+        <v>20228142</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="F35" s="2">
         <v>9</v>
       </c>
       <c r="G35" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(F35:G35)/2</f>
+        <v>9.5</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>20225946</v>
+        <v>20222083</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="F36" s="2">
         <v>9</v>
@@ -5708,133 +6474,133 @@
         <v>10</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(F36:G36)/2</f>
         <v>9.5</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>20205043</v>
+        <v>340429212</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F37" s="2">
         <v>9</v>
       </c>
       <c r="G37" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
+        <f>SUM(F37:G37)/2</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>340429212</v>
+        <v>20225439</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
         <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F38" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
+        <f>SUM(F38:G38)/2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>20201915</v>
+        <v>20216188</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="E39" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="F39" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(F39:G39)/2</f>
+        <v>9.5</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>20218389</v>
+        <v>20227920</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="F40" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
+        <f>SUM(F40:G40)/2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>20228496</v>
+        <v>20228319</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E41" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
@@ -5843,25 +6609,25 @@
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(F41:G41)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>830175287</v>
+        <v>20227614</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F42" s="2">
         <v>9</v>
@@ -5870,52 +6636,52 @@
         <v>10</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(F42:G42)/2</f>
         <v>9.5</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>20226942</v>
+        <v>20228109</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="F43" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(F43:G43)/2</f>
+        <v>8.5</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>20225439</v>
+        <v>20245173</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F44" s="2">
         <v>0</v>
@@ -5924,52 +6690,52 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(F44:G44)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>20230085</v>
+        <v>20232376</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="F45" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(F45:G45)/2</f>
+        <v>9.5</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>20228142</v>
+        <v>20222131</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="F46" s="2">
         <v>9</v>
@@ -5978,93 +6744,42 @@
         <v>10</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(F46:G46)/2</f>
         <v>9.5</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>20245173</v>
+        <v>20212856</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E47" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F47" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>20227614</v>
-      </c>
-      <c r="B48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" t="s">
-        <v>124</v>
-      </c>
-      <c r="F48" s="2">
+        <f>SUM(F47:G47)/2</f>
         <v>9</v>
       </c>
-      <c r="G48" s="1">
-        <v>10</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>20231626</v>
-      </c>
-      <c r="B49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" t="s">
-        <v>157</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H49">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
+    <sortCondition ref="B2:B47"/>
+  </sortState>
+  <conditionalFormatting sqref="H2:H47">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>6</formula>
     </cfRule>
